--- a/OrderDatabase.xlsx
+++ b/OrderDatabase.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="3384" yWindow="1320" windowWidth="17280" windowHeight="8964" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="2340" yWindow="2505" windowWidth="21600" windowHeight="11325" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
@@ -341,22 +341,24 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F8"/>
+  <dimension ref="A1:I27"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F4" sqref="A2:F4"/>
+      <selection activeCell="I1" sqref="I1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="13.8"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="14.25"/>
   <cols>
-    <col width="29.09765625" customWidth="1" min="2" max="2"/>
-    <col width="19.296875" customWidth="1" min="3" max="3"/>
-    <col width="9.8984375" customWidth="1" min="4" max="4"/>
-    <col width="16.59765625" customWidth="1" min="5" max="5"/>
-    <col width="18.296875" customWidth="1" min="6" max="6"/>
+    <col width="29.125" customWidth="1" min="2" max="2"/>
+    <col width="19.25" customWidth="1" min="3" max="3"/>
+    <col width="9.875" customWidth="1" min="4" max="4"/>
+    <col width="16.625" customWidth="1" min="5" max="5"/>
+    <col width="18.25" customWidth="1" min="6" max="6"/>
+    <col width="13.125" customWidth="1" min="7" max="7"/>
+    <col width="14.5" bestFit="1" customWidth="1" min="9" max="9"/>
   </cols>
   <sheetData>
-    <row r="1">
+    <row r="1" ht="15" customHeight="1">
       <c r="A1" s="2" t="inlineStr">
         <is>
           <t>OrderID</t>
@@ -385,6 +387,21 @@
       <c r="F1" s="1" t="inlineStr">
         <is>
           <t>Date</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>OrderType</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>Client-ID</t>
+        </is>
+      </c>
+      <c r="I1" s="2" t="inlineStr">
+        <is>
+          <t>DeliveryAddress</t>
         </is>
       </c>
     </row>
@@ -424,17 +441,17 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>cataflam,</t>
+          <t>RETURNED</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>10,</t>
+          <t>RETURNED</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>4000</t>
+          <t>0</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
@@ -595,6 +612,741 @@
       <c r="F8" t="inlineStr">
         <is>
           <t>2019-11-24 19:37</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="n">
+        <v>8</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>cataflam,panadol,</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>10,2,</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>4200</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>Visa</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>2019-11-24 22:49</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="n">
+        <v>9</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>cataflam,</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>11,</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>4400</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>Visa</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>2019-11-25 09:57</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="n">
+        <v>10</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>cataflam,</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>10,</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>4000</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>Visa</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>2019-11-27 00:32</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="n">
+        <v>11</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>cataflam,</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>1,</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>400</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>Visa</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>2019-12-01 01:12</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="n">
+        <v>12</v>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>Visa</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>2019-12-01 02:07</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>Delivery</t>
+        </is>
+      </c>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="I13" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="n">
+        <v>13</v>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>Visa</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>2019-12-01 02:18</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>Delivery</t>
+        </is>
+      </c>
+      <c r="H14" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="I14" t="inlineStr">
+        <is>
+          <t>a</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="n">
+        <v>14</v>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>Visa</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>2019-12-01 02:20</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>In-Store</t>
+        </is>
+      </c>
+      <c r="H15" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="I15" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="n">
+        <v>15</v>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>Visa</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>2019-12-01 02:21</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>In Store</t>
+        </is>
+      </c>
+      <c r="H16" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="I16" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="n">
+        <v>16</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>cataflam,</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>1,</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>400</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>Visa</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>2019-12-01 02:23</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>Delivery</t>
+        </is>
+      </c>
+      <c r="H17" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="n">
+        <v>17</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>cataflam,</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>1,</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>400</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>Cash</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>2019-12-01 02:25</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>In Store</t>
+        </is>
+      </c>
+      <c r="H18" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="I18" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="n">
+        <v>18</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>cataflam,</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>1,</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>400</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>Cash</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>2019-12-01 02:28</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>Delivery</t>
+        </is>
+      </c>
+      <c r="H19" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="n">
+        <v>19</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>cataflam,</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>1,</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>400</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>Visa</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>2019-12-01 02:33</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>Delivery</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="n">
+        <v>20</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>cataflam,</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>1,</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>400</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>Visa</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>2019-12-01 02:34</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>In Store</t>
+        </is>
+      </c>
+      <c r="H21" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="I21" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="n">
+        <v>21</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>cataflam,</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>1,</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>400</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>Visa</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>2019-12-01 02:36</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>Delivery</t>
+        </is>
+      </c>
+      <c r="H22" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="I22" t="inlineStr">
+        <is>
+          <t xml:space="preserve">ddsae </t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="n">
+        <v>22</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>cataflam,</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>2,</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>800</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>Cash</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>2019-12-01 02:36</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>In Store</t>
+        </is>
+      </c>
+      <c r="H23" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="I23" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="n">
+        <v>23</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>cataflam,</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>1,</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>400</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>Visa</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>2019-12-01 02:37</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>In Store</t>
+        </is>
+      </c>
+      <c r="H24" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="I24" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="n">
+        <v>24</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>cataflam,</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>10,</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>4000</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>Visa</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>2019-12-01 02:39</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>In Store</t>
+        </is>
+      </c>
+      <c r="H25" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="I25" t="inlineStr">
+        <is>
+          <t>2 ss</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="n">
+        <v>25</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>cataflam,</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>1,</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>400</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>Cash</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>2019-12-01 02:41</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>In-Store</t>
+        </is>
+      </c>
+      <c r="H26" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="I26" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="n">
+        <v>26</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>panadol,</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>2,</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>200</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>Cash</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>2019-12-01 13:46</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>In Store</t>
+        </is>
+      </c>
+      <c r="H27" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="I27" t="inlineStr">
+        <is>
+          <t>melsa</t>
         </is>
       </c>
     </row>

--- a/OrderDatabase.xlsx
+++ b/OrderDatabase.xlsx
@@ -341,13 +341,13 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I27"/>
+  <dimension ref="A1:I29"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="I1" sqref="I1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="14.25"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="14.25" outlineLevelCol="0"/>
   <cols>
     <col width="29.125" customWidth="1" min="2" max="2"/>
     <col width="19.25" customWidth="1" min="3" max="3"/>
@@ -1041,17 +1041,17 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>cataflam,</t>
+          <t>RETURNED</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>1,</t>
+          <t>RETURNED</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>400</t>
+          <t>0</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
@@ -1086,17 +1086,17 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>cataflam,</t>
+          <t>RETURNED</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>1,</t>
+          <t>RETURNED</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>400</t>
+          <t>0</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
@@ -1221,17 +1221,17 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>cataflam,</t>
+          <t>RETURNED</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>10,</t>
+          <t>RETURNED</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>4000</t>
+          <t>0</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
@@ -1266,17 +1266,17 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>cataflam,</t>
+          <t>RETURNED</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>1,</t>
+          <t>RETURNED</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>400</t>
+          <t>0</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
@@ -1311,44 +1311,126 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
+          <t>RETURNED</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>RETURNED</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>Cash</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>2019-12-01 13:46</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>In Store</t>
+        </is>
+      </c>
+      <c r="H27" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="I27" t="inlineStr">
+        <is>
+          <t>melsa</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="n">
+        <v>27</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>RETURNED</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>RETURNED</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>Cash</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>2019-12-28 09:41</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>In Store</t>
+        </is>
+      </c>
+      <c r="H28" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="I28" t="inlineStr"/>
+    </row>
+    <row r="29">
+      <c r="A29" t="n">
+        <v>28</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
           <t>panadol,</t>
         </is>
       </c>
-      <c r="C27" t="inlineStr">
-        <is>
-          <t>2,</t>
-        </is>
-      </c>
-      <c r="D27" t="inlineStr">
-        <is>
-          <t>200</t>
-        </is>
-      </c>
-      <c r="E27" t="inlineStr">
-        <is>
-          <t>Cash</t>
-        </is>
-      </c>
-      <c r="F27" t="inlineStr">
-        <is>
-          <t>2019-12-01 13:46</t>
-        </is>
-      </c>
-      <c r="G27" t="inlineStr">
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>1,</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>Visa</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>2019-12-28 09:41</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
         <is>
           <t>In Store</t>
         </is>
       </c>
-      <c r="H27" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="I27" t="inlineStr">
-        <is>
-          <t>melsa</t>
-        </is>
-      </c>
+      <c r="H29" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="I29" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
